--- a/DATA_goal/Junction_Flooding_136.xlsx
+++ b/DATA_goal/Junction_Flooding_136.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41568.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.18</v>
+        <v>1.32</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.720000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.5</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.62</v>
+        <v>2.86</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.3</v>
+        <v>2.13</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.3</v>
+        <v>3.03</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.25</v>
+        <v>1.13</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.35</v>
+        <v>0.34</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.45</v>
+        <v>1.05</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="S2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Z2" s="4" t="n">
         <v>1.63</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>151.7</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>28.91</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>16.35</v>
-      </c>
       <c r="AA2" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.85</v>
+        <v>0.79</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.45</v>
+        <v>2.74</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41568.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>17.16</v>
+        <v>1.72</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>12.43</v>
+        <v>1.24</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>37.58</v>
+        <v>3.76</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>29.84</v>
+        <v>2.98</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>50.5</v>
+        <v>5.05</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>20.94</v>
+        <v>2.09</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>13.24</v>
+        <v>1.32</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>15</v>
+        <v>1.5</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>16.01</v>
+        <v>1.6</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.35</v>
+        <v>0.43</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.53</v>
+        <v>1.35</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>19.06</v>
+        <v>1.91</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.72</v>
+        <v>1.17</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>198.69</v>
+        <v>19.87</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>37.83</v>
+        <v>3.78</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.49</v>
+        <v>1.25</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>25.08</v>
+        <v>2.51</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>13.06</v>
+        <v>1.31</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>25.18</v>
+        <v>2.52</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>11.03</v>
+        <v>1.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>46.31</v>
+        <v>4.63</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41568.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.39</v>
+        <v>1.44</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.56</v>
+        <v>1.06</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.24</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.55</v>
+        <v>3.16</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>25.25</v>
+        <v>2.52</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.25</v>
+        <v>1.12</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>45.14</v>
+        <v>4.51</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.57</v>
+        <v>1.76</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.21</v>
+        <v>1.12</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.65</v>
+        <v>0.36</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.35</v>
+        <v>1.14</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>16.05</v>
+        <v>1.6</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.95</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>165.5</v>
+        <v>16.55</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.79</v>
+        <v>3.18</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.48</v>
+        <v>1.05</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.15</v>
+        <v>2.11</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.04</v>
+        <v>1.1</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.89</v>
+        <v>2.19</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.2</v>
+        <v>1.32</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>41.27</v>
+        <v>4.13</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41568.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.3</v>
+        <v>0.23</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.28</v>
+        <v>1.03</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.13</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.07</v>
+        <v>1.01</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41568.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>19.04</v>
+        <v>1.9</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>14.18</v>
+        <v>1.42</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>41.6</v>
+        <v>4.16</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>33.88</v>
+        <v>3.39</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>14.93</v>
+        <v>1.49</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>53.16</v>
+        <v>5.32</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>23.15</v>
+        <v>2.32</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>10.25</v>
+        <v>1.03</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>15.17</v>
+        <v>1.52</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>16.68</v>
+        <v>1.67</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>17.73</v>
+        <v>1.77</v>
       </c>
       <c r="N6" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>22.04</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AF6" s="4" t="n">
         <v>4.8</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>14.96</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.63</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>220.41</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>41.68</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>28</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>26.49</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>48</v>
-      </c>
       <c r="AG6" s="4" t="n">
-        <v>7.76</v>
+        <v>0.78</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>17.27</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41568.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>6.69</v>
+        <v>0.67</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>29.39</v>
+        <v>2.94</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>4.75</v>
+        <v>0.47</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>2.36</v>
+        <v>0.24</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>7.15</v>
+        <v>0.71</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>2.13</v>
+        <v>0.21</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>14.85</v>
+        <v>1.49</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.17</v>
+        <v>0.12</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41568.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>38.46</v>
+        <v>3.85</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>31.43</v>
+        <v>3.14</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>13.83</v>
+        <v>1.38</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>50.05</v>
+        <v>5.01</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>21.41</v>
+        <v>2.14</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>14.1</v>
+        <v>1.41</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>15.43</v>
+        <v>1.54</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>16.39</v>
+        <v>1.64</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.44</v>
+        <v>0.44</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>19.68</v>
+        <v>1.97</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>11.64</v>
+        <v>1.16</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>203.25</v>
+        <v>20.32</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>38.56</v>
+        <v>3.86</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>12.77</v>
+        <v>1.28</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>25.95</v>
+        <v>2.59</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>13.64</v>
+        <v>1.36</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>24.81</v>
+        <v>2.48</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>11.74</v>
+        <v>1.17</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>16.2</v>
+        <v>1.62</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>45.22</v>
+        <v>4.52</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.2</v>
+        <v>0.72</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>15.97</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41568.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>20.02</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>14.98</v>
+        <v>1.5</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>43.69</v>
+        <v>4.37</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>35.8</v>
+        <v>3.58</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>60.95</v>
+        <v>6.1</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>24.32</v>
+        <v>2.43</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>10.85</v>
+        <v>1.09</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>16.08</v>
+        <v>1.61</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>18.61</v>
+        <v>1.86</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.05</v>
+        <v>0.5</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>15.72</v>
+        <v>1.57</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>22.41</v>
+        <v>2.24</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>13.17</v>
+        <v>1.32</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>231.89</v>
+        <v>23.19</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>43.95</v>
+        <v>4.4</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>29.63</v>
+        <v>2.96</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>29.8</v>
+        <v>2.98</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>12.81</v>
+        <v>1.28</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>18.41</v>
+        <v>1.84</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>55.47</v>
+        <v>5.55</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41568.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>18.49</v>
+        <v>1.85</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>13.84</v>
+        <v>1.38</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>40.34</v>
+        <v>4.03</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>33.07</v>
+        <v>3.31</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>14.53</v>
+        <v>1.45</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>57.54</v>
+        <v>5.75</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>22.45</v>
+        <v>2.25</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>10.03</v>
+        <v>1</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>14.86</v>
+        <v>1.49</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>16.18</v>
+        <v>1.62</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>17.18</v>
+        <v>1.72</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>20.7</v>
+        <v>2.07</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>213.58</v>
+        <v>21.36</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>40.61</v>
+        <v>4.06</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>13.4</v>
+        <v>1.34</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>27.38</v>
+        <v>2.74</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>14.35</v>
+        <v>1.44</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>27.87</v>
+        <v>2.79</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>11.83</v>
+        <v>1.18</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>10.45</v>
+        <v>1.04</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>52.33</v>
+        <v>5.23</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.57</v>
+        <v>0.76</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>16.75</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_136.xlsx
+++ b/DATA_goal/Junction_Flooding_136.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,37 +652,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41568.34027777778</v>
+        <v>44817.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>1.02</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>1.13</v>
@@ -697,7 +697,7 @@
         <v>1.05</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>0.9399999999999999</v>
@@ -709,34 +709,34 @@
         <v>0.16</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>15.17</v>
+        <v>15.28</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="V2" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>0.96</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.95</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>0.28</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>0.79</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
         <v>1.17</v>
@@ -745,10 +745,10 @@
         <v>0.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.74</v>
+        <v>2.77</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>1.21</v>
@@ -756,159 +756,159 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41568.34722222222</v>
+        <v>44817.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.72</v>
+        <v>2.39</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.75</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.76</v>
+        <v>5.22</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.98</v>
+        <v>4.19</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.34</v>
+        <v>1.87</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.05</v>
+        <v>7</v>
       </c>
       <c r="I3" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <v>2.09</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.5</v>
-      </c>
       <c r="M3" s="4" t="n">
-        <v>1.6</v>
+        <v>2.22</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.91</v>
+        <v>2.66</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.61</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.87</v>
+        <v>27.88</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.78</v>
+        <v>5.25</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.74</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.51</v>
+        <v>3.5</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.31</v>
+        <v>1.83</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.52</v>
+        <v>3.49</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.99</v>
+        <v>1.37</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.17</v>
+        <v>1.61</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.57</v>
+        <v>2.18</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.63</v>
+        <v>6.4</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.56</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41568.35416666666</v>
+        <v>44817.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.44</v>
+        <v>1.72</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.06</v>
+        <v>1.26</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.16</v>
+        <v>3.76</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.52</v>
+        <v>3.03</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.12</v>
+        <v>1.34</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.51</v>
+        <v>5.45</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.76</v>
+        <v>2.09</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.92</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.12</v>
+        <v>1.35</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="M4" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O4" s="4" t="n">
         <v>1.35</v>
       </c>
-      <c r="N4" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.14</v>
-      </c>
       <c r="P4" s="4" t="n">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.98</v>
+        <v>1.16</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.1</v>
@@ -917,777 +917,257 @@
         <v>0.08</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.55</v>
+        <v>19.87</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.18</v>
+        <v>3.79</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.11</v>
+        <v>2.53</v>
       </c>
       <c r="X4" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AA4" s="4" t="n">
         <v>1.1</v>
       </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.93</v>
-      </c>
       <c r="AB4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.99</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.98</v>
+        <v>1.16</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.13</v>
+        <v>4.98</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.7</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.31</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41568.36111111111</v>
+        <v>44817.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.1</v>
+        <v>2.01</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.06</v>
+        <v>1.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.23</v>
+        <v>4.39</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.13</v>
+        <v>3.57</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.57</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.03</v>
+        <v>6.16</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.13</v>
+        <v>2.44</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.06</v>
+        <v>1.08</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.04</v>
+        <v>1.59</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.09</v>
+        <v>1.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.87</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.51</v>
       </c>
       <c r="O5" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.08</v>
       </c>
-      <c r="P5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0.54</v>
+        <v>23.3</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.29</v>
+        <v>4.42</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.08</v>
+        <v>1.46</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.19</v>
+        <v>2.96</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.08</v>
+        <v>1.55</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.24</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.45</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.08</v>
+        <v>1.14</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.09</v>
+        <v>1.35</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.09</v>
+        <v>1.84</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.01</v>
+        <v>5.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41568.36805555555</v>
+        <v>44817.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.9</v>
+        <v>21.54</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.42</v>
+        <v>16.05</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.11</v>
+        <v>1.15</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>4.16</v>
+        <v>47.03</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.39</v>
+        <v>38.37</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.49</v>
+        <v>16.9</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.32</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.32</v>
+        <v>26.18</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.03</v>
+        <v>11.64</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.52</v>
+        <v>17.2</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.67</v>
+        <v>18.86</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.77</v>
+        <v>20.04</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.48</v>
+        <v>5.43</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.5</v>
+        <v>16.92</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.12</v>
+        <v>24.09</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.26</v>
+        <v>14.25</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>22.04</v>
+        <v>250.2</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>4.17</v>
+        <v>47.33</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.38</v>
+        <v>15.62</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.8</v>
+        <v>31.82</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.47</v>
+        <v>16.68</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.22</v>
+        <v>2.46</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.65</v>
+        <v>32.23</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.22</v>
+        <v>13.79</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.08</v>
+        <v>12.22</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.27</v>
+        <v>14.37</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.75</v>
+        <v>19.79</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.8</v>
+        <v>60.33</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.78</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41568.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41568.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>20.32</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41568.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>23.19</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41568.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>21.36</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>5.23</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41568.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>35.1</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>3.21</v>
+        <v>19.52</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_136.xlsx
+++ b/DATA_goal/Junction_Flooding_136.xlsx
@@ -448,11 +448,11 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
@@ -655,103 +655,103 @@
         <v>44817.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.88</v>
+        <v>28.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.49</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.06</v>
+        <v>30.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.42</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>15.28</v>
+        <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.12</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>27.69</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44817.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.39</v>
+        <v>23.89</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.48</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>5.22</v>
+        <v>52.21</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.19</v>
+        <v>41.94</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.68</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>7</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.91</v>
+        <v>29.09</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.87</v>
+        <v>18.71</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.87</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.22</v>
+        <v>22.22</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.66</v>
+        <v>26.59</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.45</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>27.88</v>
+        <v>278.81</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>5.25</v>
+        <v>52.54</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.5</v>
+        <v>35.05</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.83</v>
+        <v>18.29</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.49</v>
+        <v>34.9</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.7</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.61</v>
+        <v>16.14</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.18</v>
+        <v>21.82</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>6.4</v>
+        <v>64.05</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.66</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44817.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.18</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.65</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.76</v>
+        <v>37.62</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.03</v>
+        <v>30.26</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.44</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.45</v>
+        <v>54.5</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.09</v>
+        <v>20.94</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.19</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.48</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.6</v>
+        <v>16.05</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.53</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.58</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.87</v>
+        <v>198.7</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.79</v>
+        <v>37.91</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.53</v>
+        <v>25.29</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.21</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.63</v>
+        <v>26.3</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.04</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.61</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.76</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.98</v>
+        <v>49.79</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.7</v>
+        <v>6.95</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44817.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.01</v>
+        <v>20.08</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.49</v>
+        <v>14.91</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.39</v>
+        <v>43.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.57</v>
+        <v>35.65</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.74</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.16</v>
+        <v>61.61</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.44</v>
+        <v>24.43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.08</v>
+        <v>10.81</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.59</v>
+        <v>15.95</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.76</v>
+        <v>17.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.71</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.44</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.37</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>23.3</v>
+        <v>233.03</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.42</v>
+        <v>44.16</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.96</v>
+        <v>29.62</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.37</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3</v>
+        <v>29.96</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.44</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.35</v>
+        <v>13.45</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.45</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.61</v>
+        <v>56.05</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.82</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_136.xlsx
+++ b/DATA_goal/Junction_Flooding_136.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44817.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.28</v>
+        <v>13.283</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.51</v>
+        <v>3.507</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.83</v>
+        <v>28.828</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.49</v>
+        <v>21.492</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.24</v>
+        <v>10.237</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.57</v>
+        <v>30.575</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.47</v>
+        <v>6.473</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.56</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.33</v>
+        <v>11.331</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.14</v>
+        <v>12.141</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.38</v>
+        <v>3.376</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.42</v>
+        <v>14.419</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.41</v>
+        <v>9.413</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.8</v>
+        <v>2.798</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.64</v>
+        <v>1.636</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>29.12</v>
+        <v>29.125</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.77</v>
+        <v>18.774</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.57</v>
+        <v>9.568</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.81</v>
+        <v>2.805</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.9</v>
+        <v>7.902</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.369</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.72</v>
+        <v>11.722</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.066</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.69</v>
+        <v>27.695</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.181</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.147</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44817.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.89</v>
+        <v>23.887</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.48</v>
+        <v>17.479</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.01</v>
+        <v>2.011</v>
       </c>
       <c r="E3" s="4" t="n">
         <v>52.21</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>41.94</v>
+        <v>41.939</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.68</v>
+        <v>18.675</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>70.01000000000001</v>
+        <v>70.006</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.09</v>
+        <v>29.086</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.71</v>
+        <v>12.711</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.71</v>
+        <v>18.708</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.87</v>
+        <v>20.875</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>22.22</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.04</v>
+        <v>6.038</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.59</v>
+        <v>26.586</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>16.08</v>
+        <v>16.079</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.454</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>1.24</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>278.81</v>
+        <v>278.814</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.54</v>
+        <v>52.538</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.05</v>
+        <v>35.049</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.29</v>
+        <v>18.291</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.07</v>
+        <v>3.073</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>34.9</v>
+        <v>34.901</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.7</v>
+        <v>13.702</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.14</v>
+        <v>16.136</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.82</v>
+        <v>21.821</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.196</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>64.05</v>
+        <v>64.04600000000001</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.66</v>
+        <v>9.663</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.69</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44817.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.18</v>
+        <v>17.184</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.65</v>
+        <v>12.646</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>1.33</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>37.62</v>
+        <v>37.617</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>30.26</v>
+        <v>30.261</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.44</v>
+        <v>13.441</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>54.5</v>
+        <v>54.503</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>20.94</v>
+        <v>20.942</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.19</v>
+        <v>9.188000000000001</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.48</v>
+        <v>13.478</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.06</v>
+        <v>15.059</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.05</v>
+        <v>16.048</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.35</v>
+        <v>4.349</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.53</v>
+        <v>13.535</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>19.17</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.58</v>
+        <v>11.584</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.975</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.84</v>
+        <v>0.837</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>198.7</v>
+        <v>198.701</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>37.91</v>
+        <v>37.906</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.49</v>
+        <v>12.493</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.29</v>
+        <v>25.294</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.21</v>
+        <v>13.209</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.18</v>
+        <v>2.177</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>26.3</v>
+        <v>26.303</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.04</v>
+        <v>11.035</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.869999999999999</v>
+        <v>9.868</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.61</v>
+        <v>11.607</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.76</v>
+        <v>15.756</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>49.79</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.95</v>
+        <v>6.953</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.62</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>18.22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44817.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>47.03</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>38.37</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>66.31999999999999</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.18</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.04</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.09</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>250.2</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>47.33</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.62</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.23</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.79</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>60.33</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.52</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_136.xlsx
+++ b/DATA_goal/Junction_Flooding_136.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44817.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.08</v>
+        <v>20.082</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.91</v>
+        <v>14.914</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.22</v>
+        <v>1.221</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>43.9</v>
+        <v>43.896</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>35.65</v>
+        <v>35.654</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.74</v>
+        <v>15.744</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>61.61</v>
+        <v>61.615</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.43</v>
+        <v>24.432</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.81</v>
+        <v>10.813</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>15.95</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.59</v>
+        <v>17.593</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.71</v>
+        <v>18.713</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.07</v>
+        <v>5.072</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>15.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.44</v>
+        <v>22.438</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.37</v>
+        <v>13.372</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.794</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.828</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>233.03</v>
+        <v>233.032</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>44.16</v>
+        <v>44.161</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.58</v>
+        <v>14.575</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>29.62</v>
+        <v>29.623</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.52</v>
+        <v>15.516</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.37</v>
+        <v>2.374</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>29.96</v>
+        <v>29.961</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.87</v>
+        <v>12.874</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.44</v>
+        <v>11.439</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.45</v>
+        <v>13.454</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.45</v>
+        <v>18.447</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>56.05</v>
+        <v>56.053</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.18</v>
+        <v>8.176</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.22</v>
+        <v>18.222</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44817.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>47.03</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>38.37</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>26.18</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.64</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>24.09</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>250.2</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>47.33</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>31.82</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>60.33</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>19.52</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_136.xlsx
+++ b/DATA_goal/Junction_Flooding_136.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44817.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.082</v>
+        <v>20.08</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.914</v>
+        <v>14.91</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.221</v>
+        <v>1.22</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>43.896</v>
+        <v>43.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>35.654</v>
+        <v>35.65</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.744</v>
+        <v>15.74</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>61.615</v>
+        <v>61.61</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.432</v>
+        <v>24.43</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.813</v>
+        <v>10.81</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>15.95</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.593</v>
+        <v>17.59</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.713</v>
+        <v>18.71</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.072</v>
+        <v>5.07</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>15.79</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.438</v>
+        <v>22.44</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.372</v>
+        <v>13.37</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.794</v>
+        <v>0.79</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.828</v>
+        <v>0.83</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>233.032</v>
+        <v>233.03</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>44.161</v>
+        <v>44.16</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.575</v>
+        <v>14.58</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>29.623</v>
+        <v>29.62</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>15.516</v>
+        <v>15.52</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.374</v>
+        <v>2.37</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>29.961</v>
+        <v>29.96</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.874</v>
+        <v>12.87</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.439</v>
+        <v>11.44</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>13.454</v>
+        <v>13.45</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>18.447</v>
+        <v>18.45</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>56.053</v>
+        <v>56.05</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.176</v>
+        <v>8.18</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.222</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44817.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>47.03</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>38.37</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>66.31999999999999</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>26.18</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.86</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>20.04</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.92</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.09</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>250.2</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>47.33</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.62</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.23</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.79</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>60.33</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.52</v>
+        <v>18.22</v>
       </c>
     </row>
   </sheetData>
